--- a/input.xlsx
+++ b/input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t xml:space="preserve">IP</t>
   </si>
@@ -31,37 +31,16 @@
     <t xml:space="preserve">pass</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.159.34</t>
+    <t xml:space="preserve">192.168.227.10</t>
   </si>
   <si>
     <t xml:space="preserve">user1</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.159.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.159.178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.159.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.159.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.159.201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.159.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.159.101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.159.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.159.88</t>
+    <t xml:space="preserve">192.168.227.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.227.12</t>
   </si>
 </sst>
 </file>
@@ -158,17 +137,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E2:E11"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.08"/>
   </cols>
@@ -218,81 +197,32 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>123456</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>123456</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>123456</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>123456</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>123456</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>123456</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>123456</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
